--- a/papers/mrworkshop12/data/Hadoop MR vs P_ MR.xlsx
+++ b/papers/mrworkshop12/data/Hadoop MR vs P_ MR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30440" yWindow="-7680" windowWidth="26680" windowHeight="15900" tabRatio="500" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="26700" yWindow="-7780" windowWidth="26680" windowHeight="15900" tabRatio="500" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name=" hdata sheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="417">
   <si>
     <t>Hadoop performance issues.</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -100,18 +100,30 @@
   </si>
   <si>
     <t>Map</t>
+  </si>
+  <si>
+    <t>Map</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Shuffle</t>
+  </si>
+  <si>
+    <t>Shuffle</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Reduce</t>
+  </si>
+  <si>
+    <t>Reduce</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Setup</t>
+  </si>
+  <si>
+    <t>Setup</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -128,6 +140,42 @@
   </si>
   <si>
     <t>LMR on alamo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffle time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data transferred between map and reduce phases but between machines</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum amount transferred serially..between machines, using paramiko..</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>India,Hotel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of workers</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed-PMR for wordcount</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -4641,7 +4689,7 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'latest comp results'!$L$176:$L$179</c:f>
+                <c:f>'latest comp results'!$D$190:$D$193</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
@@ -4662,7 +4710,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'latest comp results'!$L$176:$L$179</c:f>
+                <c:f>'latest comp results'!$D$190:$D$193</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
@@ -4684,7 +4732,7 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'latest comp results'!$J$176:$J$179</c:f>
+              <c:f>'latest comp results'!$B$190:$B$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4705,7 +4753,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'latest comp results'!$K$176:$K$179</c:f>
+              <c:f>'latest comp results'!$C$190:$C$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4736,7 +4784,7 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'latest comp results'!$N$176:$N$179</c:f>
+                <c:f>'latest comp results'!$F$190:$F$193</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
@@ -4757,7 +4805,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'latest comp results'!$N$176:$N$179</c:f>
+                <c:f>'latest comp results'!$F$190:$F$193</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
@@ -4779,7 +4827,7 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'latest comp results'!$J$176:$J$179</c:f>
+              <c:f>'latest comp results'!$B$190:$B$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4800,7 +4848,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'latest comp results'!$M$176:$M$179</c:f>
+              <c:f>'latest comp results'!$E$190:$E$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4831,7 +4879,7 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'latest comp results'!$P$176:$P$179</c:f>
+                <c:f>'latest comp results'!$H$190:$H$193</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
@@ -4852,7 +4900,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'latest comp results'!$P$176:$P$179</c:f>
+                <c:f>'latest comp results'!$H$190:$H$193</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
@@ -4874,7 +4922,7 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'latest comp results'!$J$176:$J$179</c:f>
+              <c:f>'latest comp results'!$B$190:$B$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4895,7 +4943,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'latest comp results'!$O$176:$O$179</c:f>
+              <c:f>'latest comp results'!$G$190:$G$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5049,7 +5097,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'latest comp results'!$B$226</c:f>
+              <c:f>'latest comp results'!$B$237</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5106,7 +5154,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'latest comp results'!$A$190:$A$195</c:f>
+              <c:f>'latest comp results'!$A$201:$A$206</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5132,7 +5180,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'latest comp results'!$C$226:$H$226</c:f>
+              <c:f>'latest comp results'!$C$237:$H$237</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5157,7 +5205,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'latest comp results'!$B$227</c:f>
+              <c:f>'latest comp results'!$B$238</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5220,7 +5268,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'latest comp results'!$A$190:$A$195</c:f>
+              <c:f>'latest comp results'!$A$201:$A$206</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5246,7 +5294,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'latest comp results'!$C$227:$H$227</c:f>
+              <c:f>'latest comp results'!$C$238:$H$238</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5274,7 +5322,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'latest comp results'!$B$228</c:f>
+              <c:f>'latest comp results'!$B$239</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5337,7 +5385,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'latest comp results'!$A$190:$A$195</c:f>
+              <c:f>'latest comp results'!$A$201:$A$206</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5363,7 +5411,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'latest comp results'!$C$228:$H$228</c:f>
+              <c:f>'latest comp results'!$C$239:$H$239</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7765,13 +7813,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8137,47 +8185,47 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="75">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -8429,43 +8477,43 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E13" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="F13" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="H13" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="I13" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="M13" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -8644,38 +8692,38 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="75">
       <c r="A29" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -8840,34 +8888,34 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C40" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E40" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="F40" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="G40" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H40" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="I40" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="J40" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -9032,30 +9080,30 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="3" customFormat="1" ht="75">
       <c r="A52" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -9205,34 +9253,34 @@
     </row>
     <row r="60" spans="1:10" s="3" customFormat="1" ht="26">
       <c r="A60" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -9397,30 +9445,30 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="3" customFormat="1" ht="75">
       <c r="A73" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -9570,34 +9618,34 @@
     </row>
     <row r="81" spans="1:10" ht="26">
       <c r="A81" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -9761,6 +9809,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -9783,89 +9832,89 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="H3" s="23" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:19">
       <c r="H4" s="23" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:19">
       <c r="H5" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="I5" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="J5" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="130">
       <c r="A9" s="19" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="G9" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="P9" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>208</v>
-      </c>
       <c r="Q9" s="19" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -9950,25 +9999,25 @@
     </row>
     <row r="23" spans="1:41" ht="104">
       <c r="A23" s="19" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
@@ -10048,10 +10097,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:Y235"/>
+  <dimension ref="A1:Y246"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="L169" sqref="L169"/>
+    <sheetView tabSelected="1" topLeftCell="B158" workbookViewId="0">
+      <selection activeCell="L183" sqref="L183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -10062,56 +10111,56 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="D2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="39" customFormat="1" ht="78">
       <c r="A6" s="39" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="W6" s="39" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="X6" s="39" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="Y6" s="39" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -10153,7 +10202,7 @@
         <v>118.691</v>
       </c>
       <c r="L7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M7">
         <f>AVERAGE(C7:C9)</f>
@@ -10234,7 +10283,7 @@
         <v>122.011</v>
       </c>
       <c r="L8" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M8">
         <f>STDEV(C7:C9)/SQRT(3)</f>
@@ -10363,7 +10412,7 @@
         <v>167.291</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M11">
         <f>AVERAGE(C11:C13)</f>
@@ -10435,7 +10484,7 @@
         <v>158.096</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M12">
         <f>STDEV(C11:C13)/SQRT(3)</f>
@@ -10546,7 +10595,7 @@
         <v>262.47500000000002</v>
       </c>
       <c r="L17" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M17">
         <f>AVERAGE(C17:C19)</f>
@@ -10618,7 +10667,7 @@
         <v>274.71500000000003</v>
       </c>
       <c r="L18" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M18">
         <f>STDEV(C17:C19)/SQRT(3)</f>
@@ -10705,37 +10754,37 @@
     </row>
     <row r="43" spans="1:21" ht="39">
       <c r="A43" s="39" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="I43" s="39" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="J43" s="39" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K43" s="39" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="M43">
         <f>((M44-M7)/M7)*100</f>
@@ -10809,7 +10858,7 @@
         <v>191.60900000000001</v>
       </c>
       <c r="L44" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M44">
         <f>AVERAGE(C44:C46)</f>
@@ -10881,7 +10930,7 @@
         <v>182.47</v>
       </c>
       <c r="L45" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="M45">
         <f>1.96*(STDEV(C44:C46)/SQRT(3))</f>
@@ -11026,7 +11075,7 @@
         <v>297.666</v>
       </c>
       <c r="L50" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M50">
         <f>AVERAGE(C50:C52)</f>
@@ -11098,7 +11147,7 @@
         <v>299.01</v>
       </c>
       <c r="L51" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="M51">
         <f>1.96*(STDEV(C50:C52)/SQRT(3))</f>
@@ -11243,7 +11292,7 @@
         <v>534.48199999999997</v>
       </c>
       <c r="L54" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M54">
         <f>AVERAGE(C54:C56)</f>
@@ -11315,7 +11364,7 @@
         <v>531.995</v>
       </c>
       <c r="L55" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="M55">
         <f>1.96*(STDEV(C54:C56)/SQRT(3))</f>
@@ -11426,7 +11475,7 @@
         <v>1037.9290000000001</v>
       </c>
       <c r="L58" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M58">
         <f>AVERAGE(C58:C60)</f>
@@ -11499,7 +11548,7 @@
         <v>1149.99</v>
       </c>
       <c r="L59" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="M59">
         <f>1.96*(STDEV(C58:C60)/SQRT(3))</f>
@@ -11615,10 +11664,10 @@
     </row>
     <row r="70" spans="6:18">
       <c r="O70" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="Q70" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="6:18">
@@ -11782,54 +11831,54 @@
     </row>
     <row r="95" spans="2:18">
       <c r="C95" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="L95" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="96" spans="2:18" ht="52">
       <c r="B96" s="9" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="N96" s="9" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="O96" s="9" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="P96" s="9" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="Q96" s="9" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="R96" s="9" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="2:19">
@@ -11904,7 +11953,7 @@
         <v>136.60900000000001</v>
       </c>
       <c r="I98" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="J98">
         <f>AVERAGE(H97:H99)</f>
@@ -11953,7 +12002,7 @@
         <v>137.05199999999999</v>
       </c>
       <c r="I99" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="J99">
         <f>1.96*(STDEV(H97:H99)/SQRT(3))</f>
@@ -12055,7 +12104,7 @@
         <v>301.161</v>
       </c>
       <c r="I102" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="J102">
         <f>AVERAGE(H101:H103)</f>
@@ -12105,7 +12154,7 @@
         <v>287.45999999999998</v>
       </c>
       <c r="I103" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="J103">
         <f>1.96*(STDEV(H101:H103)/SQRT(3))</f>
@@ -12202,7 +12251,7 @@
         <v>541.72699999999998</v>
       </c>
       <c r="I106" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="J106">
         <f>AVERAGE(H105:H107)</f>
@@ -12232,7 +12281,7 @@
         <v>538.16800000000001</v>
       </c>
       <c r="I107" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="J107">
         <f>1.96*(STDEV(H105:H107)/SQRT(3))</f>
@@ -12288,7 +12337,7 @@
         <v>1128.258</v>
       </c>
       <c r="I110" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="J110">
         <f>AVERAGE(H109:H111)</f>
@@ -12315,7 +12364,7 @@
         <v>1199.434</v>
       </c>
       <c r="I111" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="J111">
         <f>1.96*(STDEV(H109:H111)/SQRT(3))</f>
@@ -12381,22 +12430,46 @@
       <c r="H115">
         <v>2376.3449999999998</v>
       </c>
+      <c r="J115">
+        <f>1.96*(STDEV(H113:H115)/SQRT(3))</f>
+        <v>22.845496903318764</v>
+      </c>
     </row>
     <row r="117" spans="2:12">
       <c r="I117" t="s">
         <v>15</v>
       </c>
       <c r="J117" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K117" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L117" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="2:12">
+      <c r="D118">
+        <f>1.96*(STDEV(D113:D115)/SQRT(3))</f>
+        <v>127.57381609687643</v>
+      </c>
+      <c r="E118">
+        <f>1.96*(STDEV(E113:E115)/SQRT(3))</f>
+        <v>42.942032990221996</v>
+      </c>
+      <c r="F118">
+        <f>1.96*(STDEV(F113:F115)/SQRT(3))</f>
+        <v>1.6606428928580632</v>
+      </c>
+      <c r="G118">
+        <f>1.96*(STDEV(G113:G115)/SQRT(3))</f>
+        <v>10.855275422079302</v>
+      </c>
+      <c r="H118">
+        <f>1.96*(STDEV(H113:H115)/SQRT(3))</f>
+        <v>22.845496903318764</v>
+      </c>
       <c r="I118">
         <f>AVERAGE(D97:D99)</f>
         <v>13.225333333333333</v>
@@ -12493,10 +12566,10 @@
     </row>
     <row r="129" spans="2:16" ht="39">
       <c r="B129" s="9" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>5</v>
@@ -12511,7 +12584,7 @@
         <v>2</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130" spans="2:16">
@@ -12564,7 +12637,7 @@
         <v>323.66999999999996</v>
       </c>
       <c r="I131" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="J131">
         <f>AVERAGE(H130:H132)</f>
@@ -12597,7 +12670,7 @@
         <v>333.48500000000001</v>
       </c>
       <c r="I132" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J132">
         <f>1.96*(STDEV(H130:H132)/SQRT(3))</f>
@@ -12655,7 +12728,7 @@
         <v>500.28</v>
       </c>
       <c r="I135" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="J135">
         <f>AVERAGE(H134:H136)</f>
@@ -12669,13 +12742,13 @@
         <v>15</v>
       </c>
       <c r="N135" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O135" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P135" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="136" spans="2:16">
@@ -12700,7 +12773,7 @@
         <v>488.77499999999998</v>
       </c>
       <c r="I136" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J136">
         <f>1.96*(STDEV(H134:H136)/SQRT(3))</f>
@@ -12811,7 +12884,7 @@
         <v>858.01</v>
       </c>
       <c r="I139" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="J139">
         <f>AVERAGE(H138:H140)</f>
@@ -12860,7 +12933,7 @@
         <v>871.6099999999999</v>
       </c>
       <c r="I140" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J140">
         <f>1.96*(STDEV(H138:H140)/SQRT(3))</f>
@@ -12895,7 +12968,7 @@
         <v>15782.382</v>
       </c>
       <c r="K142" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="2:16">
@@ -12920,7 +12993,7 @@
         <v>1690.1349999999998</v>
       </c>
       <c r="I143" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="J143">
         <f>AVERAGE(H142:H144)</f>
@@ -12953,14 +13026,14 @@
         <v>1716.65</v>
       </c>
       <c r="I144" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J144">
         <f>1.96*(STDEV(H142:H144)/SQRT(3))</f>
         <v>78.105044791314469</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:9">
       <c r="B146">
         <v>16</v>
       </c>
@@ -12971,1397 +13044,1424 @@
         <v>31564.764999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
-      <c r="E149" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" ht="39">
-      <c r="A151" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B151" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C151" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D151" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="E151" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="F151" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G151" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="H151" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="I151" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="J151" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="K151" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="O151" t="s">
-        <v>19</v>
-      </c>
-      <c r="P151" t="s">
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>35</v>
+      </c>
+      <c r="C148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="104">
+      <c r="A151" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B151" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="Q151" t="s">
-        <v>17</v>
-      </c>
-      <c r="R151" t="s">
+      <c r="D151" s="43" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="152" spans="1:18">
+      <c r="E151" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F151" t="s">
+        <v>31</v>
+      </c>
+      <c r="G151" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H151" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I151" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152">
         <v>1</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="32">
+        <v>13.508333333333335</v>
+      </c>
+      <c r="C152" s="32">
+        <v>107.96333333333332</v>
+      </c>
+      <c r="D152" s="32">
+        <v>120.39666666666666</v>
+      </c>
+      <c r="E152" s="32">
+        <v>84.986666666666665</v>
+      </c>
+      <c r="F152" s="32">
+        <f>SUM(B152:E152)</f>
+        <v>326.85500000000002</v>
+      </c>
+      <c r="G152">
+        <f>H152/4</f>
+        <v>246.59971874999999</v>
+      </c>
+      <c r="H152">
+        <v>986.39887499999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153" s="32">
+        <v>32.223333333333329</v>
+      </c>
+      <c r="C153" s="32">
+        <v>157.83666666666667</v>
+      </c>
+      <c r="D153" s="32">
+        <v>182.72666666666669</v>
+      </c>
+      <c r="E153" s="32">
+        <v>124.29</v>
+      </c>
+      <c r="F153" s="32">
+        <f>SUM(B153:E153)</f>
+        <v>497.07666666666671</v>
+      </c>
+      <c r="G153">
+        <f>H153/4</f>
+        <v>493.19943749999999</v>
+      </c>
+      <c r="H153">
+        <v>1972.79775</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154">
+        <v>4</v>
+      </c>
+      <c r="B154" s="32">
+        <v>27.320000000000004</v>
+      </c>
+      <c r="C154" s="32">
+        <v>266.6466666666667</v>
+      </c>
+      <c r="D154" s="32">
+        <v>324.70333333333332</v>
+      </c>
+      <c r="E154" s="32">
+        <v>246.10999999999999</v>
+      </c>
+      <c r="F154" s="32">
+        <f>SUM(B154:E154)</f>
+        <v>864.78000000000009</v>
+      </c>
+      <c r="G154">
+        <f>H154/4</f>
+        <v>986.39887499999998</v>
+      </c>
+      <c r="H154">
+        <v>3945.5954999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155">
         <v>8</v>
       </c>
-      <c r="C152">
+      <c r="B155" s="32">
+        <v>52.568333333333335</v>
+      </c>
+      <c r="C155" s="32">
+        <v>486.96000000000004</v>
+      </c>
+      <c r="D155" s="32">
+        <v>653.87</v>
+      </c>
+      <c r="E155" s="32">
+        <v>470.88666666666671</v>
+      </c>
+      <c r="F155" s="32">
+        <f>SUM(B155:E155)</f>
+        <v>1664.2850000000003</v>
+      </c>
+      <c r="G155">
+        <f>H155/4</f>
+        <v>1972.79775</v>
+      </c>
+      <c r="H155">
+        <v>7891.1909999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156">
+        <v>16</v>
+      </c>
+      <c r="H156">
+        <v>15782.3825</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="E160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" ht="39">
+      <c r="A162" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B162" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C162" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D162" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E162" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F162" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="G162" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="H162" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="I162" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="J162" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="K162" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="O162" t="s">
+        <v>23</v>
+      </c>
+      <c r="P162" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>19</v>
+      </c>
+      <c r="R162" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>8</v>
+      </c>
+      <c r="C163">
         <v>35.738</v>
       </c>
-      <c r="D152">
+      <c r="D163">
         <v>0</v>
       </c>
-      <c r="E152">
+      <c r="E163">
         <v>82</v>
       </c>
-      <c r="F152">
+      <c r="F163">
         <v>96</v>
       </c>
-      <c r="G152">
+      <c r="G163">
         <v>130</v>
       </c>
-      <c r="H152">
-        <f t="shared" ref="H152:J154" si="130">E152-D152</f>
+      <c r="H163">
+        <f t="shared" ref="H163:I165" si="130">E163-D163</f>
         <v>82</v>
       </c>
-      <c r="I152">
+      <c r="I163">
         <f t="shared" si="130"/>
         <v>14</v>
       </c>
-      <c r="J152">
-        <f t="shared" si="130"/>
+      <c r="J163">
+        <f>G163-F163</f>
         <v>34</v>
       </c>
-      <c r="K152">
-        <f>G152+C152</f>
+      <c r="K163">
+        <f>G163+C163</f>
         <v>165.738</v>
       </c>
-      <c r="O152">
-        <f>AVERAGE(C152:C154)</f>
+      <c r="O163">
+        <f>AVERAGE(C163:C165)</f>
         <v>36.706333333333333</v>
       </c>
-      <c r="P152">
-        <f>AVERAGE(H152:H154)</f>
+      <c r="P163">
+        <f>AVERAGE(H163:H165)</f>
         <v>81.666666666666671</v>
       </c>
-      <c r="Q152">
-        <f>AVERAGE(I152:I154)</f>
+      <c r="Q163">
+        <f>AVERAGE(I163:I165)</f>
         <v>14.666666666666666</v>
       </c>
-      <c r="R152">
-        <f>AVERAGE(J152:J154)</f>
+      <c r="R163">
+        <f>AVERAGE(J163:J165)</f>
         <v>31.333333333333332</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
-      <c r="B153">
+    <row r="164" spans="1:18">
+      <c r="B164">
         <v>8</v>
       </c>
-      <c r="C153">
+      <c r="C164">
         <v>35.241</v>
       </c>
-      <c r="D153">
+      <c r="D164">
         <v>0</v>
       </c>
-      <c r="E153">
+      <c r="E164">
         <v>82</v>
       </c>
-      <c r="F153">
+      <c r="F164">
         <v>97</v>
       </c>
-      <c r="G153">
+      <c r="G164">
         <v>125</v>
       </c>
-      <c r="H153">
+      <c r="H164">
         <f t="shared" si="130"/>
         <v>82</v>
       </c>
-      <c r="I153">
+      <c r="I164">
         <f t="shared" si="130"/>
         <v>15</v>
       </c>
-      <c r="J153">
-        <f t="shared" si="130"/>
+      <c r="J164">
+        <f>G164-F164</f>
         <v>28</v>
       </c>
-      <c r="K153">
-        <f>G153+C153</f>
+      <c r="K164">
+        <f>G164+C164</f>
         <v>160.24099999999999</v>
       </c>
-      <c r="L153">
-        <f>AVERAGE(K152:K154)</f>
+      <c r="L164">
+        <f>AVERAGE(K163:K165)</f>
         <v>164.37299999999999</v>
       </c>
-      <c r="M153">
-        <f>AVERAGE(G152:G154)</f>
+      <c r="M164">
+        <f>AVERAGE(G163:G165)</f>
         <v>127.66666666666667</v>
       </c>
     </row>
-    <row r="154" spans="1:18">
-      <c r="B154">
+    <row r="165" spans="1:18">
+      <c r="B165">
         <v>8</v>
       </c>
-      <c r="C154">
+      <c r="C165">
         <v>39.14</v>
       </c>
-      <c r="D154">
+      <c r="D165">
         <v>0</v>
       </c>
-      <c r="E154">
+      <c r="E165">
         <v>81</v>
       </c>
-      <c r="F154">
+      <c r="F165">
         <v>96</v>
       </c>
-      <c r="G154">
+      <c r="G165">
         <v>128</v>
       </c>
-      <c r="H154">
+      <c r="H165">
         <f t="shared" si="130"/>
         <v>81</v>
       </c>
-      <c r="I154">
+      <c r="I165">
         <f t="shared" si="130"/>
         <v>15</v>
       </c>
-      <c r="J154">
-        <f t="shared" si="130"/>
+      <c r="J165">
+        <f>G165-F165</f>
         <v>32</v>
       </c>
-      <c r="K154">
-        <f>G154+C154</f>
+      <c r="K165">
+        <f>G165+C165</f>
         <v>167.14</v>
       </c>
-      <c r="L154">
-        <f>1.96*(STDEV(K152:K154)/SQRT(3))</f>
+      <c r="L165">
+        <f>1.96*(STDEV(K163:K165)/SQRT(3))</f>
         <v>4.1263266678892929</v>
       </c>
-      <c r="M154">
-        <f>1.96*(STDEV(G152:G154)/SQRT(3))</f>
+      <c r="M165">
+        <f>1.96*(STDEV(G163:G165)/SQRT(3))</f>
         <v>2.8478139764463011</v>
       </c>
     </row>
-    <row r="156" spans="1:18">
-      <c r="A156">
+    <row r="167" spans="1:18">
+      <c r="A167">
         <v>2</v>
       </c>
-      <c r="B156">
+      <c r="B167">
         <v>16</v>
       </c>
-      <c r="C156">
+      <c r="C167">
         <v>69.153000000000006</v>
       </c>
-      <c r="D156">
+      <c r="D167">
         <v>0</v>
       </c>
-      <c r="E156">
+      <c r="E167">
         <v>157</v>
       </c>
-      <c r="F156">
+      <c r="F167">
         <v>209</v>
       </c>
-      <c r="G156">
+      <c r="G167">
         <f>3*60+55</f>
         <v>235</v>
       </c>
-      <c r="H156">
-        <f t="shared" ref="H156:J158" si="131">E156-D156</f>
+      <c r="H167">
+        <f t="shared" ref="H167:I169" si="131">E167-D167</f>
         <v>157</v>
       </c>
-      <c r="I156">
+      <c r="I167">
         <f t="shared" si="131"/>
         <v>52</v>
       </c>
-      <c r="J156">
-        <f t="shared" si="131"/>
+      <c r="J167">
+        <f>G167-F167</f>
         <v>26</v>
       </c>
-      <c r="K156">
-        <f>G156+C156</f>
+      <c r="K167">
+        <f>G167+C167</f>
         <v>304.15300000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:18">
-      <c r="B157">
+    <row r="168" spans="1:18">
+      <c r="B168">
         <v>16</v>
       </c>
-      <c r="C157">
+      <c r="C168">
         <v>70.730999999999995</v>
       </c>
-      <c r="D157">
+      <c r="D168">
         <v>0</v>
       </c>
-      <c r="E157">
+      <c r="E168">
         <v>156</v>
       </c>
-      <c r="F157">
+      <c r="F168">
         <v>213</v>
       </c>
-      <c r="G157">
+      <c r="G168">
         <v>242</v>
       </c>
-      <c r="H157">
+      <c r="H168">
         <f t="shared" si="131"/>
         <v>156</v>
       </c>
-      <c r="I157">
+      <c r="I168">
         <f t="shared" si="131"/>
         <v>57</v>
       </c>
-      <c r="J157">
-        <f t="shared" si="131"/>
+      <c r="J168">
+        <f>G168-F168</f>
         <v>29</v>
       </c>
-      <c r="K157">
-        <f>G157+C157</f>
+      <c r="K168">
+        <f>G168+C168</f>
         <v>312.73099999999999</v>
       </c>
-      <c r="L157">
-        <f>AVERAGE(K156:K158)</f>
+      <c r="L168">
+        <f>AVERAGE(K167:K169)</f>
         <v>307.21300000000002</v>
       </c>
-      <c r="M157">
-        <f>AVERAGE(G156:G158)</f>
+      <c r="M168">
+        <f>AVERAGE(G167:G169)</f>
         <v>237.33333333333334</v>
       </c>
-      <c r="O157">
-        <f>AVERAGE(C157:C159)</f>
+      <c r="O168">
+        <f>AVERAGE(C168:C170)</f>
         <v>70.242999999999995</v>
       </c>
-      <c r="P157">
-        <f>AVERAGE(H157:H159)</f>
+      <c r="P168">
+        <f>AVERAGE(H168:H170)</f>
         <v>156.5</v>
       </c>
-      <c r="Q157">
-        <f>AVERAGE(I157:I159)</f>
+      <c r="Q168">
+        <f>AVERAGE(I168:I170)</f>
         <v>55</v>
       </c>
-      <c r="R157">
-        <f>AVERAGE(J157:J159)</f>
+      <c r="R168">
+        <f>AVERAGE(J168:J170)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:18">
-      <c r="B158">
+    <row r="169" spans="1:18">
+      <c r="B169">
         <v>16</v>
       </c>
-      <c r="C158">
+      <c r="C169">
         <v>69.754999999999995</v>
       </c>
-      <c r="D158">
+      <c r="D169">
         <v>0</v>
       </c>
-      <c r="E158">
+      <c r="E169">
         <v>157</v>
       </c>
-      <c r="F158">
+      <c r="F169">
         <v>210</v>
       </c>
-      <c r="G158">
+      <c r="G169">
         <f>180+55</f>
         <v>235</v>
       </c>
-      <c r="H158">
+      <c r="H169">
         <f t="shared" si="131"/>
         <v>157</v>
       </c>
-      <c r="I158">
+      <c r="I169">
         <f t="shared" si="131"/>
         <v>53</v>
       </c>
-      <c r="J158">
-        <f t="shared" si="131"/>
+      <c r="J169">
+        <f>G169-F169</f>
         <v>25</v>
       </c>
-      <c r="K158">
-        <f>G158+C158</f>
+      <c r="K169">
+        <f>G169+C169</f>
         <v>304.755</v>
       </c>
-      <c r="L158">
-        <f>1.96*(STDEV(K156:K158)/SQRT(3))</f>
+      <c r="L169">
+        <f>1.96*(STDEV(K167:K169)/SQRT(3))</f>
         <v>5.4183565746575937</v>
       </c>
-      <c r="M158">
-        <f>1.96*(STDEV(G156:G158)/SQRT(3))</f>
+      <c r="M169">
+        <f>1.96*(STDEV(G167:G169)/SQRT(3))</f>
         <v>4.5733333333326547</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
-      <c r="A160">
+    <row r="171" spans="1:18">
+      <c r="A171">
         <v>4</v>
       </c>
-      <c r="B160">
+      <c r="B171">
         <v>32</v>
       </c>
-      <c r="C160">
+      <c r="C171">
         <v>138.26300000000001</v>
       </c>
-      <c r="D160">
+      <c r="D171">
         <v>0</v>
       </c>
-      <c r="E160">
+      <c r="E171">
         <v>302</v>
       </c>
-      <c r="F160">
+      <c r="F171">
         <v>410</v>
       </c>
-      <c r="G160">
+      <c r="G171">
         <v>459</v>
       </c>
-      <c r="H160">
-        <f t="shared" ref="H160:J162" si="132">E160-D160</f>
+      <c r="H171">
+        <f t="shared" ref="H171:I173" si="132">E171-D171</f>
         <v>302</v>
       </c>
-      <c r="I160">
+      <c r="I171">
         <f t="shared" si="132"/>
         <v>108</v>
       </c>
-      <c r="J160">
-        <f t="shared" si="132"/>
+      <c r="J171">
+        <f>G171-F171</f>
         <v>49</v>
       </c>
-      <c r="K160">
-        <f>G160+C160</f>
+      <c r="K171">
+        <f>G171+C171</f>
         <v>597.26300000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
-      <c r="B161">
+    <row r="172" spans="1:18">
+      <c r="B172">
         <v>32</v>
       </c>
-      <c r="C161">
+      <c r="C172">
         <v>140.792</v>
       </c>
-      <c r="D161">
+      <c r="D172">
         <v>0</v>
       </c>
-      <c r="E161">
+      <c r="E172">
         <v>302</v>
       </c>
-      <c r="F161">
+      <c r="F172">
         <f>6*60+58</f>
         <v>418</v>
       </c>
-      <c r="G161">
+      <c r="G172">
         <f>7*60+30</f>
         <v>450</v>
       </c>
-      <c r="H161">
+      <c r="H172">
         <f t="shared" si="132"/>
         <v>302</v>
       </c>
-      <c r="I161">
+      <c r="I172">
         <f t="shared" si="132"/>
         <v>116</v>
       </c>
-      <c r="J161">
-        <f t="shared" si="132"/>
+      <c r="J172">
+        <f>G172-F172</f>
         <v>32</v>
       </c>
-      <c r="K161">
-        <f>G161+C161</f>
+      <c r="K172">
+        <f>G172+C172</f>
         <v>590.79200000000003</v>
       </c>
-      <c r="L161">
-        <f>AVERAGE(K160:K162)</f>
+      <c r="L172">
+        <f>AVERAGE(K171:K173)</f>
         <v>593.79100000000005</v>
       </c>
-      <c r="M161">
-        <f>AVERAGE(G160:G162)</f>
+      <c r="M172">
+        <f>AVERAGE(G171:G173)</f>
         <v>454</v>
       </c>
-      <c r="O161">
-        <f>AVERAGE(C161:C163)</f>
+      <c r="O172">
+        <f>AVERAGE(C172:C174)</f>
         <v>140.55500000000001</v>
       </c>
-      <c r="P161">
-        <f>AVERAGE(H161:H163)</f>
+      <c r="P172">
+        <f>AVERAGE(H172:H174)</f>
         <v>304</v>
       </c>
-      <c r="Q161">
-        <f>AVERAGE(I161:I163)</f>
+      <c r="Q172">
+        <f>AVERAGE(I172:I174)</f>
         <v>115.5</v>
       </c>
-      <c r="R161">
-        <f>AVERAGE(J161:J163)</f>
+      <c r="R172">
+        <f>AVERAGE(J172:J174)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
-      <c r="B162">
+    <row r="173" spans="1:18">
+      <c r="B173">
         <v>32</v>
       </c>
-      <c r="C162">
+      <c r="C173">
         <v>140.31800000000001</v>
       </c>
-      <c r="D162">
+      <c r="D173">
         <v>0</v>
       </c>
-      <c r="E162">
+      <c r="E173">
         <v>306</v>
       </c>
-      <c r="F162">
+      <c r="F173">
         <v>421</v>
       </c>
-      <c r="G162">
+      <c r="G173">
         <v>453</v>
       </c>
-      <c r="H162">
+      <c r="H173">
         <f t="shared" si="132"/>
         <v>306</v>
       </c>
-      <c r="I162">
+      <c r="I173">
         <f t="shared" si="132"/>
         <v>115</v>
       </c>
-      <c r="J162">
-        <f t="shared" si="132"/>
+      <c r="J173">
+        <f>G173-F173</f>
         <v>32</v>
       </c>
-      <c r="K162">
-        <f>G162+C162</f>
+      <c r="K173">
+        <f>G173+C173</f>
         <v>593.31799999999998</v>
       </c>
-      <c r="L162">
-        <f>1.96*(STDEV(K160:K162)/SQRT(3))</f>
+      <c r="L173">
+        <f>1.96*(STDEV(K171:K173)/SQRT(3))</f>
         <v>3.6905394768847009</v>
       </c>
-      <c r="M162">
-        <f>1.96*(STDEV(G160:G162)/SQRT(3))</f>
+      <c r="M173">
+        <f>1.96*(STDEV(G171:G173)/SQRT(3))</f>
         <v>5.1856725696865977</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
-      <c r="A164">
+    <row r="175" spans="1:18">
+      <c r="A175">
         <v>8</v>
       </c>
-      <c r="B164">
+      <c r="B175">
         <v>64</v>
       </c>
-      <c r="C164">
+      <c r="C175">
         <v>250</v>
       </c>
-      <c r="D164">
+      <c r="D175">
         <v>1</v>
       </c>
-      <c r="E164">
+      <c r="E175">
         <f>9*60+55</f>
         <v>595</v>
       </c>
-      <c r="F164">
+      <c r="F175">
         <f>13*60+30</f>
         <v>810</v>
       </c>
-      <c r="G164">
+      <c r="G175">
         <f>14*60+42</f>
         <v>882</v>
       </c>
-      <c r="H164">
-        <f t="shared" ref="H164:J169" si="133">E164-D164</f>
+      <c r="H175">
+        <f t="shared" ref="H175:I180" si="133">E175-D175</f>
         <v>594</v>
       </c>
-      <c r="I164">
+      <c r="I175">
         <f t="shared" si="133"/>
         <v>215</v>
       </c>
-      <c r="J164">
-        <f t="shared" si="133"/>
+      <c r="J175">
+        <f>G175-F175</f>
         <v>72</v>
       </c>
-      <c r="K164">
-        <f>G164+C164</f>
+      <c r="K175">
+        <f>G175+C175</f>
         <v>1132</v>
       </c>
-      <c r="O164">
-        <f>AVERAGE(C164:C166)</f>
+      <c r="O175">
+        <f>AVERAGE(C175:C177)</f>
         <v>267.87333333333333</v>
       </c>
-      <c r="P164">
-        <f>AVERAGE(H164:H166)</f>
+      <c r="P175">
+        <f>AVERAGE(H175:H177)</f>
         <v>596.33333333333337</v>
       </c>
-      <c r="Q164">
-        <f>AVERAGE(I164:I166)</f>
+      <c r="Q175">
+        <f>AVERAGE(I175:I177)</f>
         <v>212.33333333333334</v>
       </c>
-      <c r="R164">
-        <f>AVERAGE(J164:J166)</f>
+      <c r="R175">
+        <f>AVERAGE(J175:J177)</f>
         <v>66.333333333333329</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
-      <c r="B165">
+    <row r="176" spans="1:18">
+      <c r="B176">
         <v>64</v>
       </c>
-      <c r="C165">
+      <c r="C176">
         <v>275.30799999999999</v>
       </c>
-      <c r="D165">
+      <c r="D176">
         <v>0</v>
       </c>
-      <c r="E165">
+      <c r="E176">
         <f>9*60+57</f>
         <v>597</v>
       </c>
-      <c r="F165">
+      <c r="F176">
         <f>13*60+28</f>
         <v>808</v>
       </c>
-      <c r="G165">
+      <c r="G176">
         <f>14*60+35</f>
         <v>875</v>
       </c>
-      <c r="H165">
+      <c r="H176">
         <f t="shared" si="133"/>
         <v>597</v>
       </c>
-      <c r="I165">
+      <c r="I176">
         <f t="shared" si="133"/>
         <v>211</v>
       </c>
-      <c r="J165">
-        <f t="shared" si="133"/>
+      <c r="J176">
+        <f>G176-F176</f>
         <v>67</v>
       </c>
-      <c r="K165">
-        <f>G165+C165</f>
+      <c r="K176">
+        <f>G176+C176</f>
         <v>1150.308</v>
       </c>
-      <c r="L165">
-        <f>AVERAGE(K164:K166)</f>
+      <c r="L176">
+        <f>AVERAGE(K175:K177)</f>
         <v>1143.2066666666667</v>
       </c>
-      <c r="M165">
-        <f>AVERAGE(G164:G166)</f>
+      <c r="M176">
+        <f>AVERAGE(G175:G177)</f>
         <v>875.33333333333337</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
-      <c r="B166">
+    <row r="177" spans="1:13">
+      <c r="B177">
         <v>64</v>
       </c>
-      <c r="C166">
+      <c r="C177">
         <v>278.31200000000001</v>
       </c>
-      <c r="D166">
+      <c r="D177">
         <v>0</v>
       </c>
-      <c r="E166">
+      <c r="E177">
         <f>9*60+58</f>
         <v>598</v>
       </c>
-      <c r="F166">
+      <c r="F177">
         <f>13*60+29</f>
         <v>809</v>
       </c>
-      <c r="G166">
+      <c r="G177">
         <f>14*60+29</f>
         <v>869</v>
       </c>
-      <c r="H166">
+      <c r="H177">
         <f t="shared" si="133"/>
         <v>598</v>
       </c>
-      <c r="I166">
+      <c r="I177">
         <f t="shared" si="133"/>
         <v>211</v>
       </c>
-      <c r="J166">
+      <c r="J177">
+        <f>G177-F177</f>
+        <v>60</v>
+      </c>
+      <c r="K177">
+        <f>G177+C177</f>
+        <v>1147.3119999999999</v>
+      </c>
+      <c r="L177">
+        <f>1.96*(STDEV(K175:K177)/SQRT(3))</f>
+        <v>11.112585673013266</v>
+      </c>
+      <c r="M177">
+        <f>1.96*(STDEV(G175:G177)/SQRT(3))</f>
+        <v>7.3626927441218859</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179">
+        <v>16</v>
+      </c>
+      <c r="B179">
+        <v>128</v>
+      </c>
+      <c r="C179">
+        <v>663.63499999999999</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <f>26*60+16</f>
+        <v>1576</v>
+      </c>
+      <c r="F179">
+        <f>36*60+27</f>
+        <v>2187</v>
+      </c>
+      <c r="G179">
+        <f>37*60+38</f>
+        <v>2258</v>
+      </c>
+      <c r="H179">
         <f t="shared" si="133"/>
-        <v>60</v>
-      </c>
-      <c r="K166">
-        <f>G166+C166</f>
-        <v>1147.3119999999999</v>
-      </c>
-      <c r="L166">
-        <f>1.96*(STDEV(K164:K166)/SQRT(3))</f>
-        <v>11.112585673013266</v>
-      </c>
-      <c r="M166">
-        <f>1.96*(STDEV(G164:G166)/SQRT(3))</f>
-        <v>7.3626927441218859</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18">
-      <c r="A168">
+        <v>1575</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="133"/>
+        <v>611</v>
+      </c>
+      <c r="J179">
+        <f>G179-F179</f>
+        <v>71</v>
+      </c>
+      <c r="K179">
+        <f>G179+C179</f>
+        <v>2921.6350000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
+      <c r="A180">
         <v>16</v>
       </c>
-      <c r="B168">
+      <c r="B180">
         <v>128</v>
       </c>
-      <c r="C168">
-        <v>663.63499999999999</v>
-      </c>
-      <c r="E168">
-        <f>30*60+16</f>
-        <v>1816</v>
-      </c>
-      <c r="F168">
-        <f>39*60+27</f>
-        <v>2367</v>
-      </c>
-      <c r="G168">
-        <f>42*60+38</f>
-        <v>2558</v>
-      </c>
-      <c r="H168">
-        <f t="shared" si="133"/>
-        <v>1816</v>
-      </c>
-      <c r="I168">
-        <f t="shared" si="133"/>
-        <v>551</v>
-      </c>
-      <c r="J168">
-        <f t="shared" si="133"/>
-        <v>191</v>
-      </c>
-      <c r="K168">
-        <f>G168+C168</f>
-        <v>3221.6350000000002</v>
-      </c>
-      <c r="L168">
-        <v>2569.8760000000002</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18">
-      <c r="A169">
-        <v>16</v>
-      </c>
-      <c r="B169">
-        <v>128</v>
-      </c>
-      <c r="C169">
+      <c r="C180">
         <v>670.37300000000005</v>
       </c>
-      <c r="E169">
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
         <f>24*60+55</f>
         <v>1495</v>
       </c>
-      <c r="F169">
+      <c r="F180">
         <f>33*60+44</f>
         <v>2024</v>
       </c>
-      <c r="G169">
+      <c r="G180">
         <f>36*60+42</f>
         <v>2202</v>
       </c>
-      <c r="H169">
+      <c r="H180">
         <f t="shared" si="133"/>
         <v>1495</v>
       </c>
-      <c r="I169">
+      <c r="I180">
         <f t="shared" si="133"/>
         <v>529</v>
       </c>
-      <c r="J169">
-        <f t="shared" si="133"/>
+      <c r="J180">
+        <f>G180-F180</f>
         <v>178</v>
       </c>
-      <c r="K169">
-        <f>G169+C169</f>
+      <c r="K180">
+        <f>G180+C180</f>
         <v>2872.373</v>
       </c>
-    </row>
-    <row r="170" spans="1:18">
-      <c r="A170">
+      <c r="L180">
+        <f>AVERAGE(K179:K181)</f>
+        <v>2929.5713333333333</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181">
         <v>16</v>
       </c>
-      <c r="B170">
+      <c r="B181">
         <v>128</v>
       </c>
-    </row>
-    <row r="175" spans="1:18">
-      <c r="J175" t="s">
+      <c r="C181">
+        <v>718.70600000000002</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <f>25*60+55</f>
+        <v>1555</v>
+      </c>
+      <c r="F181">
+        <f>34*60+56</f>
+        <v>2096</v>
+      </c>
+      <c r="G181">
+        <f>37*60+56</f>
+        <v>2276</v>
+      </c>
+      <c r="H181">
+        <f t="shared" ref="H181:J181" si="134">E181-D181</f>
+        <v>1555</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="134"/>
+        <v>541</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="134"/>
+        <v>180</v>
+      </c>
+      <c r="K181">
+        <f>G181+C181</f>
+        <v>2994.7060000000001</v>
+      </c>
+      <c r="L181">
+        <f>1.96*(STDEV(K179:K181)/SQRT(3))</f>
+        <v>69.652011253522105</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
+      <c r="C183">
+        <f>AVERAGE(C179:C181)</f>
+        <v>684.23799999999994</v>
+      </c>
+      <c r="H183">
+        <f>AVERAGE(H179:H181)</f>
+        <v>1541.6666666666667</v>
+      </c>
+      <c r="I183">
+        <f>AVERAGE(I179:I181)</f>
+        <v>560.33333333333337</v>
+      </c>
+      <c r="J183">
+        <f>AVERAGE(J179:J181)</f>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
+      <c r="C184">
+        <f>1.96*(STDEV(C179:C181)/SQRT(3))</f>
+        <v>33.993099001840605</v>
+      </c>
+      <c r="H184">
+        <f>1.96*(STDEV(H179:H181)/SQRT(3))</f>
+        <v>47.112536666064905</v>
+      </c>
+      <c r="I184">
+        <f>1.96*(STDEV(I179:I181)/SQRT(3))</f>
+        <v>50.115393953465905</v>
+      </c>
+      <c r="J184">
+        <f>1.96*(STDEV(J179:J181)/SQRT(3))</f>
+        <v>70.569073490682399</v>
+      </c>
+      <c r="K184">
+        <f>1.96*(STDEV(K179:K181)/SQRT(3))</f>
+        <v>69.652011253522105</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
+      <c r="B189" t="s">
         <v>10</v>
       </c>
-      <c r="K175" t="s">
+      <c r="C189" t="s">
         <v>7</v>
       </c>
-      <c r="L175" t="s">
+      <c r="D189" t="s">
         <v>6</v>
       </c>
-      <c r="M175" t="s">
+      <c r="E189" t="s">
         <v>8</v>
       </c>
-      <c r="N175" t="s">
+      <c r="F189" t="s">
         <v>6</v>
       </c>
-      <c r="O175" t="s">
+      <c r="G189" t="s">
         <v>9</v>
       </c>
-      <c r="P175" t="s">
+      <c r="H189" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
-      <c r="J176">
+    <row r="190" spans="1:13">
+      <c r="B190">
         <v>1</v>
       </c>
-      <c r="K176">
+      <c r="C190">
         <v>127.66666666666667</v>
       </c>
-      <c r="L176">
+      <c r="D190">
         <v>2.8478139764463011</v>
       </c>
-      <c r="M176">
+      <c r="E190">
         <v>138.84366666666668</v>
       </c>
-      <c r="N176">
+      <c r="F190">
         <v>3.9537597419720347</v>
       </c>
-      <c r="O176">
+      <c r="G190">
         <v>333.02333333333331</v>
       </c>
-      <c r="P176">
+      <c r="H190">
         <v>3.7673547666510578</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
-      <c r="J177">
+    <row r="191" spans="1:13">
+      <c r="B191">
         <v>2</v>
       </c>
-      <c r="K177">
+      <c r="C191">
         <v>237.33333333333334</v>
       </c>
-      <c r="L177">
+      <c r="D191">
         <v>4.5733333333326547</v>
       </c>
-      <c r="M177">
+      <c r="E191">
         <v>291.65900000000005</v>
       </c>
-      <c r="N177">
+      <c r="F191">
         <v>9.3328871561992184</v>
       </c>
-      <c r="O177">
+      <c r="G191">
         <v>515.9666666666667</v>
       </c>
-      <c r="P177">
+      <c r="H191">
         <v>16.561657221961795</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
-      <c r="J178">
+    <row r="192" spans="1:13">
+      <c r="B192">
         <v>4</v>
       </c>
-      <c r="K178">
+      <c r="C192">
         <v>454</v>
       </c>
-      <c r="L178">
+      <c r="D192">
         <v>5.1856725696865977</v>
       </c>
-      <c r="M178">
+      <c r="E192">
         <v>554.89466666666669</v>
       </c>
-      <c r="N178">
+      <c r="F192">
         <v>29.365570828382978</v>
       </c>
-      <c r="O178">
+      <c r="G192">
         <v>892.1</v>
       </c>
-      <c r="P178">
+      <c r="H192">
         <v>7.4403193730497463</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
-      <c r="J179">
+    <row r="193" spans="1:16">
+      <c r="B193">
         <v>8</v>
       </c>
-      <c r="K179">
+      <c r="C193">
         <v>875.33333333333337</v>
       </c>
-      <c r="L179">
+      <c r="D193">
         <v>7.3626927441218859</v>
       </c>
-      <c r="M179">
+      <c r="E193">
         <v>1152.5989999999999</v>
       </c>
-      <c r="N179">
+      <c r="F193">
         <v>45.910195475769797</v>
       </c>
-      <c r="O179">
+      <c r="G193">
         <v>1716.8533333333332</v>
       </c>
-      <c r="P179">
+      <c r="H193">
         <v>84.245652230867222</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
-      <c r="G180" s="32"/>
-    </row>
-    <row r="183" spans="1:16">
-      <c r="J183" t="s">
-        <v>85</v>
-      </c>
-      <c r="M183" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16">
-      <c r="J184" t="s">
-        <v>87</v>
-      </c>
-      <c r="M184">
+    <row r="197" spans="1:16">
+      <c r="F197" t="s">
+        <v>98</v>
+      </c>
+      <c r="I197" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16">
+      <c r="F198" t="s">
+        <v>100</v>
+      </c>
+      <c r="I198">
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
-      <c r="J185" t="s">
-        <v>88</v>
-      </c>
-      <c r="M185">
+    <row r="199" spans="1:16">
+      <c r="F199" t="s">
+        <v>101</v>
+      </c>
+      <c r="I199">
         <v>1</v>
       </c>
-      <c r="N185" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16">
-      <c r="J186" t="s">
-        <v>90</v>
-      </c>
-      <c r="M186">
+      <c r="J199" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16">
+      <c r="F200" t="s">
+        <v>103</v>
+      </c>
+      <c r="I200">
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
-      <c r="J187" t="s">
-        <v>91</v>
-      </c>
-      <c r="M187" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16">
-      <c r="J189" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16">
-      <c r="A190" t="s">
-        <v>34</v>
-      </c>
-      <c r="J190" t="s">
-        <v>93</v>
-      </c>
-      <c r="L190" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16">
-      <c r="A191" t="s">
-        <v>35</v>
-      </c>
-      <c r="J191" t="s">
+    <row r="201" spans="1:16">
+      <c r="A201" t="s">
+        <v>47</v>
+      </c>
+      <c r="F201" t="s">
+        <v>104</v>
+      </c>
+      <c r="I201" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16">
+      <c r="A202" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16">
+      <c r="A203" t="s">
+        <v>49</v>
+      </c>
+      <c r="F203" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" s="40" customFormat="1">
+      <c r="A204" t="s">
+        <v>50</v>
+      </c>
+      <c r="B204"/>
+      <c r="C204"/>
+      <c r="D204"/>
+      <c r="E204"/>
+      <c r="F204" t="s">
+        <v>106</v>
+      </c>
+      <c r="G204"/>
+      <c r="H204" t="s">
+        <v>109</v>
+      </c>
+      <c r="I204"/>
+      <c r="J204"/>
+      <c r="K204"/>
+      <c r="L204"/>
+      <c r="M204"/>
+      <c r="N204"/>
+      <c r="O204"/>
+      <c r="P204"/>
+    </row>
+    <row r="205" spans="1:16">
+      <c r="A205" t="s">
+        <v>51</v>
+      </c>
+      <c r="F205" t="s">
+        <v>79</v>
+      </c>
+      <c r="L205" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16">
+      <c r="A206" t="s">
+        <v>52</v>
+      </c>
+      <c r="F206" t="s">
+        <v>107</v>
+      </c>
+      <c r="H206" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16">
+      <c r="H207" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16">
+      <c r="F208" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17">
+      <c r="F209" t="s">
+        <v>75</v>
+      </c>
+      <c r="H209" t="s">
+        <v>76</v>
+      </c>
+      <c r="I209" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17">
+      <c r="I210" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17">
+      <c r="F212" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17">
+      <c r="F213" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q213" s="40"/>
+    </row>
+    <row r="214" spans="1:17">
+      <c r="F214" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17">
+      <c r="A215" s="40"/>
+      <c r="B215" s="40"/>
+      <c r="C215" s="40"/>
+      <c r="D215" s="40"/>
+      <c r="E215" s="40"/>
+      <c r="F215" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17">
+      <c r="J216">
+        <f>(D233-D234)/D234*100</f>
+        <v>10.043727265691516</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17">
+      <c r="J217">
+        <f>(D237-D238)/D237*100</f>
+        <v>9.1168250419228816</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17">
+      <c r="K218" t="e">
+        <f>SUM(#REF!+#REF!+J216+J217)/4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L218" t="e">
+        <f>1.96*STDEV(#REF!,#REF!,J216,J217)/SQRT(4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17">
+      <c r="G219" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17">
+      <c r="G222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" ht="52">
+      <c r="A224" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C224" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D224" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E224" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F224" s="40"/>
+      <c r="G224" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H224" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I224" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" ht="26">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="B225" t="s">
         <v>66</v>
       </c>
-      <c r="P191" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16">
-      <c r="A192" t="s">
-        <v>36</v>
-      </c>
-      <c r="J192" t="s">
-        <v>94</v>
-      </c>
-      <c r="L192" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13">
-      <c r="A193" t="s">
-        <v>37</v>
-      </c>
-      <c r="L193" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13">
-      <c r="A194" t="s">
-        <v>38</v>
-      </c>
-      <c r="J194" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13">
-      <c r="A195" t="s">
-        <v>39</v>
-      </c>
-      <c r="J195" t="s">
-        <v>62</v>
-      </c>
-      <c r="L195" t="s">
-        <v>63</v>
-      </c>
-      <c r="M195" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13">
-      <c r="M196" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13">
-      <c r="J198" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13">
-      <c r="J199" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13">
-      <c r="J200" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13">
-      <c r="J201" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" s="40" customFormat="1"/>
-    <row r="208" spans="1:13">
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="211" spans="1:17">
-      <c r="G211" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="213" spans="1:17" ht="52">
-      <c r="A213" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B213" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C213" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D213" s="40" t="s">
+      <c r="D225" s="42">
+        <f>AVERAGE(H163:H165)</f>
+        <v>81.666666666666671</v>
+      </c>
+      <c r="E225" s="42">
+        <f>AVERAGE(I163:I165)</f>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="F225" s="42"/>
+      <c r="G225" s="42">
+        <f>AVERAGE(J163:J165)</f>
+        <v>31.333333333333332</v>
+      </c>
+      <c r="H225" s="42">
+        <f>M164</f>
+        <v>127.66666666666667</v>
+      </c>
+      <c r="J225" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="K225" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="L225" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E213" s="40" t="s">
+      <c r="M225" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F213" s="40"/>
-      <c r="G213" s="40" t="s">
+      <c r="N225" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="H213" s="40" t="s">
+      <c r="O225" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="I213" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="J213" s="40"/>
-      <c r="K213" s="40"/>
-      <c r="L213" s="40"/>
-      <c r="M213" s="40"/>
-      <c r="N213" s="40"/>
-      <c r="O213" s="40"/>
-      <c r="P213" s="40"/>
-      <c r="Q213" s="40"/>
-    </row>
-    <row r="214" spans="1:17">
-      <c r="A214">
-        <v>1</v>
-      </c>
-      <c r="B214" t="s">
-        <v>53</v>
-      </c>
-      <c r="D214" s="42">
-        <f>AVERAGE(H152:H154)</f>
-        <v>81.666666666666671</v>
-      </c>
-      <c r="E214" s="42">
-        <f>AVERAGE(I152:I154)</f>
-        <v>14.666666666666666</v>
-      </c>
-      <c r="F214" s="42"/>
-      <c r="G214" s="42">
-        <f>AVERAGE(J152:J154)</f>
-        <v>31.333333333333332</v>
-      </c>
-      <c r="H214" s="42">
-        <f>M153</f>
-        <v>127.66666666666667</v>
-      </c>
-      <c r="J214">
-        <f>(D214-D215)/D215*100</f>
-        <v>15.898425673630042</v>
-      </c>
-    </row>
-    <row r="215" spans="1:17">
-      <c r="B215" t="s">
+    </row>
+    <row r="226" spans="1:15">
+      <c r="B226" t="s">
         <v>8</v>
       </c>
-      <c r="C215">
+      <c r="C226">
         <f>AVERAGE(D97:D99)</f>
         <v>13.225333333333333</v>
       </c>
-      <c r="D215" s="42">
+      <c r="D226" s="42">
         <f>AVERAGE(E97:E99)</f>
         <v>70.463999999999999</v>
       </c>
-      <c r="E215" s="42">
+      <c r="E226" s="42">
         <f>AVERAGE(F97:F99)</f>
         <v>0.12366666666666666</v>
       </c>
-      <c r="G215" s="42">
+      <c r="G226" s="42">
         <f>AVERAGE(G97:G99)</f>
         <v>55.153999999999996</v>
       </c>
-      <c r="H215" s="42">
+      <c r="H226" s="42">
         <f>J98</f>
         <v>138.84366666666668</v>
       </c>
-      <c r="I215" s="42">
-        <f>(H215-H214)/H214*100</f>
+      <c r="I226" s="42">
+        <f>(H226-H225)/H225*100</f>
         <v>8.7548302872062713</v>
       </c>
-      <c r="J215">
-        <f>(D218-D219)/D219*100</f>
-        <v>11.347758001047136</v>
-      </c>
-    </row>
-    <row r="216" spans="1:17" ht="26">
-      <c r="B216" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C216">
+      <c r="K226">
+        <f>1.96*(STDEV(H175:H177)/SQRT(3))</f>
+        <v>2.3556268333136874</v>
+      </c>
+      <c r="L226">
+        <f>1.96*(STDEV(F175:F177)/SQRT(3))</f>
+        <v>1.1316065276116667</v>
+      </c>
+      <c r="N226">
+        <f>1.96*(STDEV(J175:J177)/SQRT(3))</f>
+        <v>6.8210002524881972</v>
+      </c>
+      <c r="O226">
+        <f>1.96*(STDEV(G175:G177)/SQRT(3))</f>
+        <v>7.3626927441218859</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" ht="26">
+      <c r="B227" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C227">
         <f>AVERAGE(D130:D132)/2</f>
         <v>6.7541666666666673</v>
       </c>
-      <c r="D216" s="42">
+      <c r="D227" s="42">
         <f>AVERAGE(E130:E132)</f>
         <v>107.96333333333332</v>
       </c>
-      <c r="E216" s="42">
+      <c r="E227" s="42">
         <f>AVERAGE(F130:F132)</f>
         <v>120.39666666666666</v>
       </c>
-      <c r="G216" s="42">
+      <c r="G227" s="42">
         <f>AVERAGE(G130:G132)</f>
         <v>84.986666666666665</v>
       </c>
-      <c r="H216" s="42">
+      <c r="H227" s="42">
         <f>J131</f>
         <v>326.85499999999996</v>
-      </c>
-      <c r="J216">
-        <f>(D222-D223)/D223*100</f>
-        <v>10.043727265691516</v>
-      </c>
-    </row>
-    <row r="217" spans="1:17">
-      <c r="E217" s="42"/>
-      <c r="F217" s="42"/>
-      <c r="G217" s="42"/>
-      <c r="H217" s="42"/>
-      <c r="J217">
-        <f>(D226-D227)/D226*100</f>
-        <v>9.1168250419228816</v>
-      </c>
-    </row>
-    <row r="218" spans="1:17">
-      <c r="A218">
-        <v>2</v>
-      </c>
-      <c r="B218" t="s">
-        <v>53</v>
-      </c>
-      <c r="D218" s="42">
-        <f>AVERAGE(H156:H158)</f>
-        <v>156.66666666666666</v>
-      </c>
-      <c r="E218" s="42">
-        <f>AVERAGE(I156:I158)</f>
-        <v>54</v>
-      </c>
-      <c r="F218" s="42"/>
-      <c r="G218" s="42">
-        <f>AVERAGE(J156:J158)</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="H218" s="42">
-        <f>M157</f>
-        <v>237.33333333333334</v>
-      </c>
-      <c r="K218">
-        <f>SUM(J214+J215+J216+J217)/4</f>
-        <v>11.601683995572893</v>
-      </c>
-      <c r="L218">
-        <f>1.96*STDEV(J214,J215,J216,J217)/SQRT(4)</f>
-        <v>2.9469726337725026</v>
-      </c>
-    </row>
-    <row r="219" spans="1:17">
-      <c r="B219" t="s">
-        <v>8</v>
-      </c>
-      <c r="C219">
-        <f>AVERAGE(D101:D103)</f>
-        <v>43.638333333333328</v>
-      </c>
-      <c r="D219" s="42">
-        <f>AVERAGE(E101:E103)</f>
-        <v>140.70033333333333</v>
-      </c>
-      <c r="E219" s="42">
-        <f>AVERAGE(F101:F103)</f>
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="G219" s="42">
-        <f>AVERAGE(G101:G103)</f>
-        <v>107.61733333333335</v>
-      </c>
-      <c r="H219" s="42">
-        <f>J102</f>
-        <v>291.65900000000005</v>
-      </c>
-      <c r="I219" s="42">
-        <f>(H219-H218)/H218*100</f>
-        <v>22.890028089887657</v>
-      </c>
-    </row>
-    <row r="220" spans="1:17" ht="26">
-      <c r="B220" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C220">
-        <f>AVERAGE(D134:D136)/2</f>
-        <v>16.111666666666665</v>
-      </c>
-      <c r="D220" s="42">
-        <f>AVERAGE(E134:E136)</f>
-        <v>157.83666666666667</v>
-      </c>
-      <c r="E220" s="42">
-        <f>AVERAGE(F134:F136)</f>
-        <v>182.72666666666669</v>
-      </c>
-      <c r="G220" s="42">
-        <f>AVERAGE(G134:G136)</f>
-        <v>124.29</v>
-      </c>
-      <c r="H220" s="42">
-        <f>J135</f>
-        <v>497.07666666666665</v>
-      </c>
-    </row>
-    <row r="221" spans="1:17">
-      <c r="E221" s="42"/>
-      <c r="F221" s="42"/>
-      <c r="G221" s="42"/>
-      <c r="H221" s="42"/>
-    </row>
-    <row r="222" spans="1:17">
-      <c r="A222">
-        <v>4</v>
-      </c>
-      <c r="B222" t="s">
-        <v>53</v>
-      </c>
-      <c r="D222" s="42">
-        <f>AVERAGE(H160:H162)</f>
-        <v>303.33333333333331</v>
-      </c>
-      <c r="E222" s="42">
-        <f>AVERAGE(I160:I162)</f>
-        <v>113</v>
-      </c>
-      <c r="F222" s="42"/>
-      <c r="G222" s="42">
-        <f>AVERAGE(J160:J162)</f>
-        <v>37.666666666666664</v>
-      </c>
-      <c r="H222" s="42">
-        <f>M161</f>
-        <v>454</v>
-      </c>
-    </row>
-    <row r="223" spans="1:17">
-      <c r="B223" t="s">
-        <v>8</v>
-      </c>
-      <c r="C223">
-        <f>AVERAGE(D105:D107)</f>
-        <v>64.720000000000013</v>
-      </c>
-      <c r="D223" s="42">
-        <f>AVERAGE(E105:E107)</f>
-        <v>275.64799999999997</v>
-      </c>
-      <c r="E223" s="42">
-        <f>AVERAGE(F105:F107)</f>
-        <v>0.57500000000000007</v>
-      </c>
-      <c r="G223" s="42">
-        <f>AVERAGE(G105:G107)</f>
-        <v>214.52633333333333</v>
-      </c>
-      <c r="H223" s="42">
-        <f>J106</f>
-        <v>554.89466666666669</v>
-      </c>
-      <c r="I223" s="42">
-        <f>(H223-H222)/H222*100</f>
-        <v>22.223494860499272</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17" ht="26">
-      <c r="B224" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C224">
-        <f>AVERAGE(D138:D140)/2</f>
-        <v>13.660000000000002</v>
-      </c>
-      <c r="D224" s="42">
-        <f>AVERAGE(E138:E140)</f>
-        <v>266.6466666666667</v>
-      </c>
-      <c r="E224" s="42">
-        <f>AVERAGE(F138:F140)</f>
-        <v>324.70333333333332</v>
-      </c>
-      <c r="G224" s="42">
-        <f>AVERAGE(G138:G140)</f>
-        <v>246.10999999999999</v>
-      </c>
-      <c r="H224" s="42">
-        <f>J139</f>
-        <v>864.78000000000009</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15" ht="26">
-      <c r="E225" s="42"/>
-      <c r="F225" s="42"/>
-      <c r="G225" s="42"/>
-      <c r="H225" s="42"/>
-      <c r="J225" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="K225" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="L225" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="M225" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="N225" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="O225" s="40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15">
-      <c r="A226">
-        <v>8</v>
-      </c>
-      <c r="B226" t="s">
-        <v>53</v>
-      </c>
-      <c r="D226" s="42">
-        <f>AVERAGE(H164:H166)</f>
-        <v>596.33333333333337</v>
-      </c>
-      <c r="E226" s="42">
-        <f>AVERAGE(I164:I166)</f>
-        <v>212.33333333333334</v>
-      </c>
-      <c r="F226" s="42"/>
-      <c r="G226" s="42">
-        <f>AVERAGE(J164:J166)</f>
-        <v>66.333333333333329</v>
-      </c>
-      <c r="H226" s="42">
-        <f>M165</f>
-        <v>875.33333333333337</v>
-      </c>
-      <c r="K226">
-        <f>1.96*(STDEV(H164:H166)/SQRT(3))</f>
-        <v>2.3556268333136874</v>
-      </c>
-      <c r="L226">
-        <f>1.96*(STDEV(F164:F166)/SQRT(3))</f>
-        <v>1.1316065276116667</v>
-      </c>
-      <c r="N226">
-        <f>1.96*(STDEV(J164:J166)/SQRT(3))</f>
-        <v>6.8210002524881972</v>
-      </c>
-      <c r="O226">
-        <f>1.96*(STDEV(G164:G166)/SQRT(3))</f>
-        <v>7.3626927441218859</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15">
-      <c r="B227" t="s">
-        <v>8</v>
-      </c>
-      <c r="C227">
-        <f>AVERAGE(D109:D111)</f>
-        <v>154.98133333333334</v>
-      </c>
-      <c r="D227" s="42">
-        <f>AVERAGE(E109:E111)</f>
-        <v>541.96666666666658</v>
-      </c>
-      <c r="E227" s="42">
-        <f>AVERAGE(F109:F111)</f>
-        <v>1.2026666666666666</v>
-      </c>
-      <c r="G227" s="42">
-        <f>AVERAGE(G109:G111)</f>
-        <v>438.98433333333332</v>
-      </c>
-      <c r="H227" s="42">
-        <f>J110</f>
-        <v>1152.5990000000002</v>
-      </c>
-      <c r="I227" s="42">
-        <f>(H227-H226)/H226*100</f>
-        <v>31.67543792840824</v>
       </c>
       <c r="J227">
         <f>1.96*(STDEV(D109:D111)/SQRT(3))</f>
@@ -14384,30 +14484,11 @@
         <v>45.910195475769797</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="26">
-      <c r="B228" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C228">
-        <f>AVERAGE(D142:D144)/2</f>
-        <v>26.284166666666668</v>
-      </c>
-      <c r="D228" s="42">
-        <f>AVERAGE(E142:E144)</f>
-        <v>486.96000000000004</v>
-      </c>
-      <c r="E228" s="42">
-        <f>AVERAGE(F142:F144)</f>
-        <v>653.87</v>
-      </c>
-      <c r="G228" s="42">
-        <f>AVERAGE(G142:G144)</f>
-        <v>470.88666666666671</v>
-      </c>
-      <c r="H228" s="42">
-        <f>J143</f>
-        <v>1664.2849999999999</v>
-      </c>
+    <row r="228" spans="1:15">
+      <c r="E228" s="42"/>
+      <c r="F228" s="42"/>
+      <c r="G228" s="42"/>
+      <c r="H228" s="42"/>
       <c r="J228">
         <f>1.96*(STDEV(D142:D144)/SQRT(3))</f>
         <v>6.9319890501291139</v>
@@ -14429,35 +14510,284 @@
         <v>78.105044791314469</v>
       </c>
     </row>
+    <row r="229" spans="1:15">
+      <c r="A229">
+        <v>2</v>
+      </c>
+      <c r="B229" t="s">
+        <v>66</v>
+      </c>
+      <c r="D229" s="42">
+        <f>AVERAGE(H167:H169)</f>
+        <v>156.66666666666666</v>
+      </c>
+      <c r="E229" s="42">
+        <f>AVERAGE(I167:I169)</f>
+        <v>54</v>
+      </c>
+      <c r="F229" s="42"/>
+      <c r="G229" s="42">
+        <f>AVERAGE(J167:J169)</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="H229" s="42">
+        <f>M168</f>
+        <v>237.33333333333334</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15">
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230">
+        <f>AVERAGE(D101:D103)</f>
+        <v>43.638333333333328</v>
+      </c>
+      <c r="D230" s="42">
+        <f>AVERAGE(E101:E103)</f>
+        <v>140.70033333333333</v>
+      </c>
+      <c r="E230" s="42">
+        <f>AVERAGE(F101:F103)</f>
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="G230" s="42">
+        <f>AVERAGE(G101:G103)</f>
+        <v>107.61733333333335</v>
+      </c>
+      <c r="H230" s="42">
+        <f>J102</f>
+        <v>291.65900000000005</v>
+      </c>
+      <c r="I230" s="42">
+        <f>(H230-H229)/H229*100</f>
+        <v>22.890028089887657</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" ht="26">
+      <c r="B231" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C231">
+        <f>AVERAGE(D134:D136)/2</f>
+        <v>16.111666666666665</v>
+      </c>
+      <c r="D231" s="42">
+        <f>AVERAGE(E134:E136)</f>
+        <v>157.83666666666667</v>
+      </c>
+      <c r="E231" s="42">
+        <f>AVERAGE(F134:F136)</f>
+        <v>182.72666666666669</v>
+      </c>
+      <c r="G231" s="42">
+        <f>AVERAGE(G134:G136)</f>
+        <v>124.29</v>
+      </c>
+      <c r="H231" s="42">
+        <f>J135</f>
+        <v>497.07666666666665</v>
+      </c>
+    </row>
     <row r="232" spans="1:15">
-      <c r="A232">
-        <v>1</v>
-      </c>
-      <c r="B232" s="42">
-        <v>120.39666666666666</v>
-      </c>
+      <c r="E232" s="42"/>
+      <c r="F232" s="42"/>
+      <c r="G232" s="42"/>
+      <c r="H232" s="42"/>
     </row>
     <row r="233" spans="1:15">
       <c r="A233">
+        <v>4</v>
+      </c>
+      <c r="B233" t="s">
+        <v>66</v>
+      </c>
+      <c r="D233" s="42">
+        <f>AVERAGE(H171:H173)</f>
+        <v>303.33333333333331</v>
+      </c>
+      <c r="E233" s="42">
+        <f>AVERAGE(I171:I173)</f>
+        <v>113</v>
+      </c>
+      <c r="F233" s="42"/>
+      <c r="G233" s="42">
+        <f>AVERAGE(J171:J173)</f>
+        <v>37.666666666666664</v>
+      </c>
+      <c r="H233" s="42">
+        <f>M172</f>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15">
+      <c r="B234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234">
+        <f>AVERAGE(D105:D107)</f>
+        <v>64.720000000000013</v>
+      </c>
+      <c r="D234" s="42">
+        <f>AVERAGE(E105:E107)</f>
+        <v>275.64799999999997</v>
+      </c>
+      <c r="E234" s="42">
+        <f>AVERAGE(F105:F107)</f>
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="G234" s="42">
+        <f>AVERAGE(G105:G107)</f>
+        <v>214.52633333333333</v>
+      </c>
+      <c r="H234" s="42">
+        <f>J106</f>
+        <v>554.89466666666669</v>
+      </c>
+      <c r="I234" s="42">
+        <f>(H234-H233)/H233*100</f>
+        <v>22.223494860499272</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" ht="26">
+      <c r="B235" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C235">
+        <f>AVERAGE(D138:D140)/2</f>
+        <v>13.660000000000002</v>
+      </c>
+      <c r="D235" s="42">
+        <f>AVERAGE(E138:E140)</f>
+        <v>266.6466666666667</v>
+      </c>
+      <c r="E235" s="42">
+        <f>AVERAGE(F138:F140)</f>
+        <v>324.70333333333332</v>
+      </c>
+      <c r="G235" s="42">
+        <f>AVERAGE(G138:G140)</f>
+        <v>246.10999999999999</v>
+      </c>
+      <c r="H235" s="42">
+        <f>J139</f>
+        <v>864.78000000000009</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15">
+      <c r="E236" s="42"/>
+      <c r="F236" s="42"/>
+      <c r="G236" s="42"/>
+      <c r="H236" s="42"/>
+    </row>
+    <row r="237" spans="1:15">
+      <c r="A237">
+        <v>8</v>
+      </c>
+      <c r="B237" t="s">
+        <v>66</v>
+      </c>
+      <c r="D237" s="42">
+        <f>AVERAGE(H175:H177)</f>
+        <v>596.33333333333337</v>
+      </c>
+      <c r="E237" s="42">
+        <f>AVERAGE(I175:I177)</f>
+        <v>212.33333333333334</v>
+      </c>
+      <c r="F237" s="42"/>
+      <c r="G237" s="42">
+        <f>AVERAGE(J175:J177)</f>
+        <v>66.333333333333329</v>
+      </c>
+      <c r="H237" s="42">
+        <f>M176</f>
+        <v>875.33333333333337</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15">
+      <c r="B238" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238">
+        <f>AVERAGE(D109:D111)</f>
+        <v>154.98133333333334</v>
+      </c>
+      <c r="D238" s="42">
+        <f>AVERAGE(E109:E111)</f>
+        <v>541.96666666666658</v>
+      </c>
+      <c r="E238" s="42">
+        <f>AVERAGE(F109:F111)</f>
+        <v>1.2026666666666666</v>
+      </c>
+      <c r="G238" s="42">
+        <f>AVERAGE(G109:G111)</f>
+        <v>438.98433333333332</v>
+      </c>
+      <c r="H238" s="42">
+        <f>J110</f>
+        <v>1152.5990000000002</v>
+      </c>
+      <c r="I238" s="42">
+        <f>(H238-H237)/H237*100</f>
+        <v>31.67543792840824</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" ht="26">
+      <c r="B239" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C239">
+        <f>AVERAGE(D142:D144)/2</f>
+        <v>26.284166666666668</v>
+      </c>
+      <c r="D239" s="42">
+        <f>AVERAGE(E142:E144)</f>
+        <v>486.96000000000004</v>
+      </c>
+      <c r="E239" s="42">
+        <f>AVERAGE(F142:F144)</f>
+        <v>653.87</v>
+      </c>
+      <c r="G239" s="42">
+        <f>AVERAGE(G142:G144)</f>
+        <v>470.88666666666671</v>
+      </c>
+      <c r="H239" s="42">
+        <f>J143</f>
+        <v>1664.2849999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243" s="42">
+        <v>120.39666666666666</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
         <v>2</v>
       </c>
-      <c r="B233" s="42">
+      <c r="B244" s="42">
         <v>182.72666666666669</v>
       </c>
     </row>
-    <row r="234" spans="1:15">
-      <c r="A234">
+    <row r="245" spans="1:2">
+      <c r="A245">
         <v>4</v>
       </c>
-      <c r="B234" s="42">
+      <c r="B245" s="42">
         <v>324.70333333333332</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
-      <c r="A235">
+    <row r="246" spans="1:2">
+      <c r="A246">
         <v>8</v>
       </c>
-      <c r="B235" s="42">
+      <c r="B246" s="42">
         <v>653.87</v>
       </c>
     </row>
@@ -14479,7 +14809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -14487,55 +14817,55 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="E8" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="104">
       <c r="A10" s="41" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="H10" s="48"/>
       <c r="I10" s="48"/>
@@ -14646,30 +14976,30 @@
     </row>
     <row r="16" spans="1:13">
       <c r="E16" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="104">
       <c r="A18" s="41" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H18" s="48"/>
       <c r="I18" s="48"/>
@@ -14790,30 +15120,30 @@
     </row>
     <row r="26" spans="1:18">
       <c r="E26" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="104" customHeight="1">
       <c r="A28" s="41" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H28" s="48"/>
       <c r="I28" s="48"/>
@@ -14953,7 +15283,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="E39" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="I39">
         <f>33*60</f>
@@ -14970,22 +15300,22 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B42" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C42" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D42" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="E42" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="M42" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="26">
@@ -15017,13 +15347,13 @@
         <v>54.945999999999998</v>
       </c>
       <c r="M43" s="41" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="N43" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="O43" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -15037,17 +15367,17 @@
         <v>56.898000000000003</v>
       </c>
       <c r="L44" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="M44" s="41">
         <f>65*60</f>
         <v>3900</v>
       </c>
       <c r="N44" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="O44" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -15065,10 +15395,10 @@
         <v>3780</v>
       </c>
       <c r="N45" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="O45" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -15086,7 +15416,7 @@
         <v>3660</v>
       </c>
       <c r="N46" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="O46">
         <v>3.4</v>
@@ -15094,13 +15424,13 @@
     </row>
     <row r="47" spans="1:15">
       <c r="L47" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="M47" s="41">
         <v>3660</v>
       </c>
       <c r="N47" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="O47">
         <v>3.7</v>
@@ -15112,7 +15442,7 @@
         <v>3540</v>
       </c>
       <c r="N48" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="7:14">
@@ -15121,7 +15451,7 @@
         <v>7620</v>
       </c>
       <c r="N49" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="7:14">
@@ -15140,26 +15470,26 @@
         <v>7625</v>
       </c>
       <c r="N50" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="7:14">
       <c r="G54" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="87" spans="8:15">
       <c r="H87" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="K87" s="45" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="M87">
         <v>2.0499999999999998</v>
       </c>
       <c r="N87" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="O87">
         <v>3.16</v>
@@ -15167,33 +15497,34 @@
     </row>
     <row r="88" spans="8:15">
       <c r="H88" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="K88" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="M88">
         <v>23.05</v>
       </c>
       <c r="N88" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89" spans="8:15">
       <c r="H89" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="K89" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="M89" s="46">
         <v>3.6805555555555557E-2</v>
       </c>
       <c r="N89" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="3">
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G18:J18"/>
@@ -15222,39 +15553,39 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="75">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15515,38 +15846,38 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="75">
       <c r="A22" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -15683,30 +16014,30 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="75">
       <c r="A35" s="2" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -15829,30 +16160,30 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="75">
       <c r="A46" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -15974,6 +16305,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -15996,7 +16328,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="47" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -16022,7 +16354,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="47" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -16048,34 +16380,34 @@
     </row>
     <row r="5" spans="1:15" ht="60">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -16320,49 +16652,49 @@
     </row>
     <row r="16" spans="1:15" ht="52">
       <c r="A16" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -16663,38 +16995,38 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="75">
       <c r="A34" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -16827,34 +17159,34 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B44" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C44" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E44" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="F44" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="G44" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H44" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="I44" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="J44" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -16987,30 +17319,30 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="75">
       <c r="A56" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -17163,34 +17495,34 @@
     </row>
     <row r="64" spans="1:10" ht="26">
       <c r="A64" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -17355,30 +17687,30 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="75">
       <c r="A76" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -17502,34 +17834,34 @@
     </row>
     <row r="83" spans="1:10" ht="26">
       <c r="A83" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -17661,6 +17993,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:G3"/>
@@ -17687,44 +18020,44 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="52">
       <c r="A5" s="9" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -17929,38 +18262,38 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="65">
       <c r="A22" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="G22" s="9" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -18071,30 +18404,30 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="3" customFormat="1" ht="65">
       <c r="A36" s="9" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -18217,30 +18550,30 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="3" customFormat="1" ht="65">
       <c r="A51" s="9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -18339,6 +18672,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -18364,14 +18698,14 @@
   <sheetData>
     <row r="3" spans="1:21">
       <c r="H3" s="10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
     <row r="5" spans="1:21">
       <c r="E5" s="10" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -18381,75 +18715,75 @@
     </row>
     <row r="8" spans="1:21">
       <c r="E8" s="10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="75">
       <c r="A9" s="9" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -18965,7 +19299,7 @@
     <row r="58" spans="8:14" s="11" customFormat="1"/>
     <row r="59" spans="8:14">
       <c r="H59" s="10" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -18976,7 +19310,7 @@
     </row>
     <row r="60" spans="8:14">
       <c r="H60" s="10" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
@@ -18987,62 +19321,62 @@
     </row>
     <row r="65" spans="1:18">
       <c r="D65" s="10" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:18">
       <c r="N66" s="10" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="66">
       <c r="A68" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F68" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="G68" s="9" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="H68" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N68" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="O68" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="P68" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="L68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="Q68" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -19209,7 +19543,7 @@
         <v>8.4270068507499366E-2</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F72" s="5">
         <v>1.5495519105914905E-2</v>
@@ -19274,7 +19608,7 @@
     <row r="115" spans="1:17" s="11" customFormat="1"/>
     <row r="117" spans="1:17">
       <c r="I117" s="10" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="J117" s="10"/>
       <c r="K117" s="10"/>
@@ -19285,46 +19619,46 @@
     </row>
     <row r="119" spans="1:17" ht="75">
       <c r="A119" s="9" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="G119" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M119" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="K119" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M119" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="N119" s="2" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -19550,7 +19884,7 @@
     <row r="163" spans="1:16" s="11" customFormat="1"/>
     <row r="166" spans="1:16">
       <c r="F166" s="10" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
@@ -19561,46 +19895,46 @@
     </row>
     <row r="169" spans="1:16" ht="75">
       <c r="A169" s="9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="G169" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L169" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K169" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L169" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="M169" s="2" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="P169" s="2" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -19780,6 +20114,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -19803,40 +20138,40 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="12" customFormat="1" ht="65">
       <c r="A8" s="12" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -19954,7 +20289,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="G15" s="13"/>
     </row>
@@ -20006,7 +20341,7 @@
         <v>6713.4576150945904</v>
       </c>
       <c r="N17" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -20033,7 +20368,7 @@
         <v>6799.4268641219005</v>
       </c>
       <c r="M18" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="N18" s="13">
         <f>AVERAGE(G16:G19)</f>
@@ -20070,65 +20405,65 @@
     </row>
     <row r="24" spans="1:15">
       <c r="D24" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="I24" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="C26" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="D26" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="E26" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F26" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="H26" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="I26" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="J26" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="K26" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="L26" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="C27" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="D27" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="E27" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="F27" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="H27" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="I27" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="J27" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="K27" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -20226,10 +20561,10 @@
     </row>
     <row r="36" spans="4:5">
       <c r="D36" s="12" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="E36" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="4:5">
@@ -20270,48 +20605,48 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="3" customFormat="1" ht="52">
       <c r="A53" s="3" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -20392,7 +20727,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="O62" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -20420,25 +20755,25 @@
     </row>
     <row r="66" spans="1:16" ht="65">
       <c r="A66" s="12" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="J66">
         <f>0.6*A67</f>
@@ -20552,10 +20887,10 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -20620,7 +20955,7 @@
         <v>3510.606060606061</v>
       </c>
       <c r="P81" s="16" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -20715,37 +21050,37 @@
     </row>
     <row r="87" spans="1:19" ht="52">
       <c r="I87" s="3" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="R87" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -20776,7 +21111,7 @@
     </row>
     <row r="90" spans="1:19">
       <c r="A90" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -20820,6 +21155,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -20849,90 +21185,90 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="I3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="J3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="65">
       <c r="A8" s="3" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="Q8" s="3" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -21205,40 +21541,40 @@
     </row>
     <row r="14" spans="1:19">
       <c r="S14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="S15" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" ht="65">
       <c r="A18" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H18" s="48"/>
       <c r="I18" s="48"/>
@@ -21378,68 +21714,68 @@
     </row>
     <row r="30" spans="1:10">
       <c r="F30" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="F31" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="F33" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="24" customFormat="1" ht="65" customHeight="1">
       <c r="C37" s="25" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="N37" s="25" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="26" customFormat="1" ht="78">
       <c r="A38" s="3" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
       <c r="J38" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="K38" s="26" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="P38" s="48" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="Q38" s="48"/>
       <c r="R38" s="48"/>
@@ -21618,14 +21954,14 @@
     </row>
     <row r="43" spans="1:18">
       <c r="D43" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="E43" s="18">
         <f>AVERAGE(E39:E42)</f>
         <v>3238.8260978260869</v>
       </c>
       <c r="O43" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="P43" s="18">
         <f>AVERAGE(P39:P42)</f>
@@ -21634,14 +21970,14 @@
     </row>
     <row r="44" spans="1:18">
       <c r="D44" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E44" s="18">
         <f>STDEV(E39:E42)/SQRT(4)</f>
         <v>18.184795097249783</v>
       </c>
       <c r="O44" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="P44" s="18">
         <f>STDEV(P39:P42)/SQRT(4)</f>
@@ -21653,15 +21989,15 @@
     <row r="49" spans="2:6" s="3" customFormat="1" ht="16" customHeight="1"/>
     <row r="50" spans="2:6">
       <c r="B50" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E51" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="F51" s="38">
         <f>A39-(J39+N39)+D39</f>
@@ -21670,7 +22006,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="E52" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F52" s="34">
         <f>M39-C39</f>
@@ -21679,52 +22015,52 @@
     </row>
     <row r="58" spans="2:6">
       <c r="C58" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="C60" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="83" customHeight="1">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B69" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F69" s="48"/>
       <c r="G69" s="48"/>
       <c r="J69" s="3" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="P69" s="48" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Q69" s="48"/>
       <c r="R69" s="48"/>
@@ -21903,14 +22239,14 @@
     </row>
     <row r="74" spans="1:18">
       <c r="D74" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E74" s="18">
         <f>AVERAGE(E70:E73)</f>
         <v>2554.5330979310347</v>
       </c>
       <c r="O74" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="P74" s="18">
         <f>AVERAGE(P70:P73)</f>
@@ -21919,14 +22255,14 @@
     </row>
     <row r="75" spans="1:18">
       <c r="D75" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E75" s="18">
         <f>STDEV(E70:E73)/SQRT(4)</f>
         <v>27.222161688935078</v>
       </c>
       <c r="O75" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="P75" s="18">
         <f>STDEV(P70:P73)/SQRT(4)</f>
@@ -21969,22 +22305,22 @@
     </row>
     <row r="85" spans="4:7">
       <c r="E85" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="4:7">
       <c r="E86" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="4:7">
       <c r="G88" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="4:7">
       <c r="D91" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E91" s="36">
         <f>A70-(J70+N70)+D70</f>
@@ -21993,7 +22329,7 @@
     </row>
     <row r="92" spans="4:7">
       <c r="D92" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="E92" s="37">
         <f>M70-C70</f>
@@ -22002,42 +22338,42 @@
     </row>
     <row r="103" spans="1:18" ht="83" customHeight="1">
       <c r="A103" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B103" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D103" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="E103" s="48" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="F103" s="48"/>
       <c r="G103" s="48"/>
       <c r="J103" s="3" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="O103" s="3" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="P103" s="48" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="Q103" s="48"/>
       <c r="R103" s="48"/>
@@ -22221,14 +22557,14 @@
     </row>
     <row r="108" spans="1:18">
       <c r="D108" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="E108" s="18">
         <f>AVERAGE(E104:E107)</f>
         <v>6585.0194049899201</v>
       </c>
       <c r="O108" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="P108" s="22">
         <f>AVERAGE(P104:P107)</f>
@@ -22237,14 +22573,14 @@
     </row>
     <row r="109" spans="1:18">
       <c r="D109" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="E109" s="18">
         <f>STDEV(E104:E107)/SQRT(4)</f>
         <v>15.903850369574583</v>
       </c>
       <c r="O109" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="P109" s="22">
         <f>STDEV(P104:P107)/SQRT(4)</f>
@@ -22259,7 +22595,7 @@
     </row>
     <row r="115" spans="4:11">
       <c r="D115" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="K115" s="31">
         <f>K104+N104</f>
@@ -22296,7 +22632,7 @@
     </row>
     <row r="126" spans="4:11">
       <c r="D126" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="E126" s="33">
         <f>K104+N104</f>
@@ -22305,37 +22641,37 @@
     </row>
     <row r="128" spans="4:11">
       <c r="D128" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="E128">
         <v>2112.16</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="H128" s="33">
         <f>E128-E126</f>
         <v>67.205999999999904</v>
       </c>
       <c r="I128" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="4:6">
       <c r="D130" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="E130" s="20">
         <f>L104-C104</f>
         <v>895.26129032258132</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="4:6">
       <c r="D133" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="E133" s="20">
         <v>1123.45</v>
@@ -22343,28 +22679,29 @@
     </row>
     <row r="139" spans="4:6">
       <c r="D139" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E139" s="35">
         <f>H128+E133</f>
         <v>1190.6559999999999</v>
       </c>
       <c r="F139" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141" spans="4:6">
       <c r="D141" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E141">
         <v>895.26</v>
       </c>
       <c r="F141" s="20" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="7">
     <mergeCell ref="E69:G69"/>
     <mergeCell ref="P69:R69"/>
@@ -22397,33 +22734,33 @@
   <sheetData>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="F5" s="20">
         <f>AVERAGE(E6:E12)</f>
         <v>11.528571428571428</v>
       </c>
       <c r="G5" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="K5" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -22647,21 +22984,21 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C21" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="B22" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="C22">
         <v>43.5</v>
@@ -22672,10 +23009,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B23" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C23">
         <v>0.93</v>
@@ -22686,10 +23023,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C24">
         <v>0.93</v>
@@ -22700,10 +23037,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C25">
         <v>11.5</v>
@@ -22714,10 +23051,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C26">
         <v>0.91</v>
@@ -22728,10 +23065,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C27">
         <v>8.4</v>
@@ -22742,29 +23079,29 @@
     </row>
     <row r="35" spans="1:11">
       <c r="C35" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="F35" s="20" t="e">
         <f>AVERAGE(E39:E45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G35" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I35" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="K35" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -22808,94 +23145,94 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="H3" s="23" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:19">
       <c r="H4" s="23" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:19">
       <c r="H5" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="I5" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="J5" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="65">
       <c r="A8" s="3" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="Q8" s="3" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -23168,25 +23505,25 @@
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="104">
       <c r="A22" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
